--- a/biology/Médecine/Léon_Kreisler/Léon_Kreisler.xlsx
+++ b/biology/Médecine/Léon_Kreisler/Léon_Kreisler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Kreisler</t>
+          <t>Léon_Kreisler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Léon Kreisler (19 avril 1912-19 novembre 2008[1]) est un psychanalyste, pédiatre et pédopsychiatre français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Kreisler (19 avril 1912-19 novembre 2008) est un psychanalyste, pédiatre et pédopsychiatre français.
 Il a été  proche de Serge Lebovici, de René Diatkine et de Michel Soulé. Il a entre autres été l'un des pionniers de la psychosomatique psychanalytique des enfants à laquelle il a consacré un Que sais-je ? qui fait toujours autorité.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Kreisler</t>
+          <t>Léon_Kreisler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Psychosomatique de l'enfant, éd. PUF ; 4e éd. revue et mise à jour, 1992, coll. « Que sais-je ? »  (ISBN 2130444121)
 avec Serge Lebovici, Léon Kreisler, Michel Fain: L'enfant et son corps - Études sur la clinique psychosomatique du premier âge, éd. PUF, 1996  (ISBN 2130400183)</t>
